--- a/138 - 作战2 - Item Amplify Skills - 道具增强技能.xlsx
+++ b/138 - 作战2 - Item Amplify Skills - 道具增强技能.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="使用说明" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,20 @@
     <sheet name="Script Calls" sheetId="5" r:id="rId3"/>
     <sheet name="插件参数" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -164,13 +177,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">使此技能可以对 x 类型的道具进行增强。
 </t>
     </r>
@@ -276,13 +282,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">设置用于增强使用技能的最大和最小道具数。
 </t>
     </r>
@@ -316,13 +315,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">这些类型用于确定道具增强技能可以用于增强的道具。
 </t>
     </r>
@@ -416,13 +408,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">当放大到x时，更改此道具的作用动画。
 </t>
     </r>
@@ -680,13 +665,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>无视防御。选择增强该物品时，如果目标正在防御，则忽略任何伤害修改</t>
     </r>
     <r>
@@ -713,13 +691,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>需要VisuMZ_1_ElementStatusCore!</t>
     </r>
     <r>
@@ -1079,13 +1050,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">这是一个变量，在使用任何新动作时都会更新，无论是来自演员还是敌人。
 它将返回用于当前增强技能所使用的道具（如果有的话）。
 这些道具是最原始的形式，即：
@@ -1230,7 +1194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1428,13 +1392,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
@@ -1444,6 +1401,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
@@ -1458,15 +1422,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF7030A0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2518,8 +2482,8 @@
   <sheetPr/>
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2615,8 +2579,8 @@
   <sheetPr/>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2879,7 +2843,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
